--- a/storage/pa_template/Items_bulk_upload_template.xlsx
+++ b/storage/pa_template/Items_bulk_upload_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PlayerAuctions\Me_Upgrade\PATradeSite(Legacy)-2008\web\Member\Download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/code/pa_tool/storage/pa_template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E831B0E9-0F64-42D5-ABAF-E00596FD8465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D3C261-E551-6545-B66E-3A909A55B663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23600" yWindow="4460" windowWidth="23600" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="offer details" sheetId="1" r:id="rId1"/>
@@ -216,7 +216,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,7 +270,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,6 +286,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,7 +325,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -363,9 +369,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -381,9 +393,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -421,9 +433,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -456,26 +468,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -508,26 +503,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -701,35 +679,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.125" customWidth="1"/>
-    <col min="13" max="13" width="10.875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.1640625" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="48" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="29.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" ht="16">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -788,7 +766,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="16">
       <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
@@ -839,7 +817,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="16">
       <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
@@ -890,7 +868,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="16">
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
@@ -940,6 +918,21 @@
       <c r="S4" s="12" t="s">
         <v>25</v>
       </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="J8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="16"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="J9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="16"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="J10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="16"/>
     </row>
   </sheetData>
   <dataConsolidate/>
